--- a/tools/apache-fesod/src/main/resources/doc/template_user_list.xlsx
+++ b/tools/apache-fesod/src/main/resources/doc/template_user_list.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My\dev\Ateng-Java\tools\apache-fesod\src\main\resources\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\my\Ateng-Java\tools\apache-fesod\src\main\resources\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFAF3E4-79E1-4833-A28F-E6D88CDA7DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613C607-FAAC-44DF-B4FF-24447AA7BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,44 +75,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{list.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.age}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.phoneNumber}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.email}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.score}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.ratio}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.birthday}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.province}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.city}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{list.createTime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{.name}</t>
+  </si>
+  <si>
+    <t>{.age}</t>
+  </si>
+  <si>
+    <t>{.phoneNumber}</t>
+  </si>
+  <si>
+    <t>{.email}</t>
+  </si>
+  <si>
+    <t>{.score}</t>
+  </si>
+  <si>
+    <t>{.ratio}</t>
+  </si>
+  <si>
+    <t>{.birthday}</t>
+  </si>
+  <si>
+    <t>{.province}</t>
+  </si>
+  <si>
+    <t>{.city}</t>
+  </si>
+  <si>
+    <t>{.createTime}</t>
   </si>
 </sst>
 </file>
@@ -146,8 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,77 +433,75 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="1" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
